--- a/activity_log.xlsx
+++ b/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,6 +973,1156 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:32:56</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>172e498e</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:32:56</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>172e498e</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:33:06</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2c7709e7</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:33:06</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2c7709e7</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:34:08</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1490ac92</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:34:08</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1490ac92</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:34:10</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>82afec1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:34:10</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>82afec1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:34:15</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>418b1393</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:34:15</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>418b1393</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:34:16</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>9ac7c51e</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:34:16</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>9ac7c51e</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:35:45</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>dc819d5b</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:35:45</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>dc819d5b</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:37:22</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ff109a07</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:37:22</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ff109a07</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:39:27</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>adb1e7e2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:39:27</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>adb1e7e2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:39:42</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Button: admin_analytics_menu</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>admin_analytics_menu</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2d2e89f4</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:39:42</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>admin_analytics_menu</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Analytics menu sent</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>admin_analytics_menu</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2d2e89f4</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:40:17</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Button: admin_conversation_analytics</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>admin_conversation_analytics</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2427ebe6</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:41:00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Button: admin_export_conversations</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>admin_export_conversations</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>eb3a8ee0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:41:43</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Button: admin_back_main</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>admin_back_main</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>c0c3770c</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:41:51</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Button: admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>87b9381c</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:41:51</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Catalog management menu sent</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>87b9381c</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:42:01</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Button: admin_view_stats</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>admin_view_stats</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>9ae3f473</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:42:09</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>614ab2de</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:42:09</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>614ab2de</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/activity_log.xlsx
+++ b/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2123,6 +2123,2346 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:45:12</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Button: admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>8c2e71c6</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:45:12</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Catalog management menu sent</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>8c2e71c6</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:46:21</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Button: admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>5933e402</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:46:21</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Catalog management menu sent</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>5933e402</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:47:49</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Button: admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>370c8ec7</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:47:49</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Catalog management menu sent</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>370c8ec7</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:48:30</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Button: admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>671896c5</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:48:30</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Catalog management menu sent</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>671896c5</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:48:36</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Button: admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>eda8c2d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:48:36</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Catalog management menu sent</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>eda8c2d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:52:44</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Button: admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>5c9d3b27</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-10-05 13:52:44</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Catalog management menu sent</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>5c9d3b27</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:10:47</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>order_placed</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Order placed: Unknown</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Order confirmation sent</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>d56be844</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>{"catalog_id": "796694820003872", "order_text": "", "products": [{"title": "Unnamed", "quantity": 1, "price": "385", "retailer_id": "N/A"}], "order_type": "Unknown", "laptop_count": 0, "repair_count": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:10:58</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>c7f9a0dc</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:10:58</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>c7f9a0dc</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:11:03</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Button: browse_laptops</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>914e14ab</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:11:03</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Laptop catalog options sent</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>914e14ab</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:11:08</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Button: action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>d65b45ca</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:11:08</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Laptop catalog sent</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>d65b45ca</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "laptops"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:11:22</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>order_placed</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Order placed: Unknown</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Order confirmation sent</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>e11ec5f9</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>{"catalog_id": "796694820003872", "order_text": "", "products": [{"title": "Unnamed", "quantity": 1, "price": "410", "retailer_id": "N/A"}], "order_type": "Unknown", "laptop_count": 0, "repair_count": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:15:46</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>c44fe631</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:15:46</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>c44fe631</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:15:51</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Button: admin_order_management</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>d87c445f</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:15:51</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Order management menu sent</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>d87c445f</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:16:06</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Button: admin_recent_orders</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>admin_recent_orders</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>8946d632</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:17:48</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>order_placed</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Order placed: Unknown</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Order confirmation sent</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2c3d883d</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>{"catalog_id": "796694820003872", "order_text": "", "products": [{"title": "Unnamed", "quantity": 1, "price": "410", "retailer_id": "N/A"}], "order_type": "Unknown", "laptop_count": 0, "repair_count": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:31:13</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>a65a6f39</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:31:13</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>a65a6f39</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:31:22</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Button: browse_laptops</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>bfb0bbb9</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:31:22</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Laptop catalog options sent</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>bfb0bbb9</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:31:28</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Button: action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>f0dfb085</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:31:28</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Laptop catalog sent</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>f0dfb085</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "laptops"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:31:40</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>order_placed</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Order placed: Unknown</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Order confirmation sent</t>
+        </is>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2923c268</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>{"catalog_id": "796694820003872", "order_text": "", "products": [{"title": "Unnamed", "quantity": 1, "price": "410", "retailer_id": "N/A"}], "order_type": "Unknown", "laptop_count": 0, "repair_count": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:31:42</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>admin_order_notification</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Order notification sent for Unknown order from 263776681617</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2923c268</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>{"customer_phone": "263776681617", "customer_name": "Codeconel\ud83d\udc68\u200d\ud83d\udcbb", "order_type": "Unknown", "order_value": 410.0, "product_count": 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:31:43</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>order_confirmation_sent</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Order confirmation sent for Unknown</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2923c268</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:53:40</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Button: care_plan</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>care_plan</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>fd089a22</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:54:28</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>03bc44d4</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:54:28</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>03bc44d4</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:54:35</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Button: browse_laptops</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>a723d6ff</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:54:35</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Laptop catalog options sent</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>a723d6ff</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:54:40</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Button: action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>b2b5da3a</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:54:40</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Laptop catalog sent</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>b2b5da3a</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "laptops"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:54:54</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>order_placed</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Order placed: LAPTOP</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Order confirmation sent</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>1b23f7e2</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>{"catalog_id": "796694820003872", "order_text": "", "products": [{"title": "Unnamed Product", "quantity": 1, "price": 410.0, "item_total": 410.0, "retailer_id": "esxr0rxyrk"}], "order_type": "LAPTOP", "laptop_count": 1, "repair_count": 0, "total_amount": 410.0, "order_id": "ORD202510051454541617"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:54:55</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>admin_order_notification</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Order notification sent for LAPTOP order from 263776681617</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>1b23f7e2</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>{"customer_phone": "263776681617", "customer_name": "Codeconel\ud83d\udc68\u200d\ud83d\udcbb", "order_type": "LAPTOP", "order_value": 410.0, "product_count": 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:54:57</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>order_confirmation_sent</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Order confirmation sent for LAPTOP</t>
+        </is>
+      </c>
+      <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>1b23f7e2</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:55:54</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>fc4c73b9</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:55:54</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>fc4c73b9</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:56:01</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Button: browse_laptops</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>04a30d9e</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:56:01</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Laptop catalog options sent</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>04a30d9e</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:56:06</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Button: action_repairs</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>action_repairs</t>
+        </is>
+      </c>
+      <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>459bb54e</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:56:06</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Repair catalog sent</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>action_repairs</t>
+        </is>
+      </c>
+      <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>459bb54e</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "repairs"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:56:18</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>order_placed</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Order placed: REPAIR</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Order confirmation sent</t>
+        </is>
+      </c>
+      <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>c8bfea99</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>{"catalog_id": "796694820003872", "order_text": "", "products": [{"title": "Unnamed Product", "quantity": 1, "price": 13.0, "item_total": 13.0, "retailer_id": "14bnrluwsq"}], "order_type": "REPAIR", "laptop_count": 0, "repair_count": 1, "total_amount": 13.0, "order_id": "ORD202510051456181617"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:56:19</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>admin_order_notification</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Order notification sent for REPAIR order from 263776681617</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>c8bfea99</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>{"customer_phone": "263776681617", "customer_name": "Codeconel\ud83d\udc68\u200d\ud83d\udcbb", "order_type": "REPAIR", "order_value": 13.0, "product_count": 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-10-05 14:56:20</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>order_confirmation_sent</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Order confirmation sent for REPAIR</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>c8bfea99</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/activity_log.xlsx
+++ b/activity_log.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Activity_Log" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Activity_Log" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4463,6 +4463,5971 @@
         </is>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-10-05 15:07:28</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Button: care_plan_from_why</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>care_plan_from_why</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>231357b3</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:36:47</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>3aca8fe9</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:36:47</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I98" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>3aca8fe9</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:37:44</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I99" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>f5d2e2e9</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:37:44</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I100" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>f5d2e2e9</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:38:42</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I101" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>033987e9</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:38:42</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I102" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>033987e9</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:43:07</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I103" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>5cc26495</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:43:07</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I104" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>5cc26495</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:43:12</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Button: lifetime_support</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>lifetime_support</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>99488681</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:43:12</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>lifetime_support</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Lifetime support info sent</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>lifetime_support</t>
+        </is>
+      </c>
+      <c r="I106" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>99488681</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:43:42</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Button: browse_laptops</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I107" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>11d7ec6f</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:43:43</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Laptop catalog options sent</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I108" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>11d7ec6f</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:43:50</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Button: action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>253e05a9</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:43:50</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Laptop catalog sent</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I110" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>253e05a9</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "laptops"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:44:05</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>order_placed</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Order placed: LAPTOP</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Order confirmation sent</t>
+        </is>
+      </c>
+      <c r="I111" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>130b0576</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>{"catalog_id": "796694820003872", "order_text": "", "products": [{"title": "Unnamed Product", "quantity": 1, "price": 410.0, "item_total": 410.0, "retailer_id": "esxr0rxyrk"}], "order_type": "LAPTOP", "laptop_count": 1, "repair_count": 0, "total_amount": 410.0, "order_id": "ORD202510060844051617"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:44:06</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>admin_order_notification</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Order notification sent for LAPTOP order from 263776681617</t>
+        </is>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>130b0576</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>{"customer_phone": "263776681617", "customer_name": "Codeconel\ud83d\udc68\u200d\ud83d\udcbb", "order_type": "LAPTOP", "order_value": 410.0, "product_count": 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:44:08</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>order_confirmation_sent</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Order confirmation sent for LAPTOP</t>
+        </is>
+      </c>
+      <c r="I113" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>130b0576</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:45:00</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>0423985d</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:45:00</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>0423985d</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:45:07</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Button: admin_analytics_menu</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>admin_analytics_menu</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>ad1995a6</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:45:07</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>admin_analytics_menu</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Analytics menu sent</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>admin_analytics_menu</t>
+        </is>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>ad1995a6</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:45:24</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Button: admin_detailed_analytics</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>admin_detailed_analytics</t>
+        </is>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>21d8e53e</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:45:49</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Button: admin_analytics_menu</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>admin_analytics_menu</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>4e59c416</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:45:49</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>admin_analytics_menu</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Analytics menu sent</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>admin_analytics_menu</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>4e59c416</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:45:58</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Button: admin_conversation_analytics</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>admin_conversation_analytics</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>38f00337</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:58:13</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>order_placed</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Order placed: REPAIR</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Order confirmation sent</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>2d3753cc</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>{"catalog_id": "796694820003872", "order_text": "", "products": [{"title": "Unnamed Product", "quantity": 1, "price": 13.0, "item_total": 13.0, "retailer_id": "14bnrluwsq"}], "order_type": "REPAIR", "laptop_count": 0, "repair_count": 1, "total_amount": 13.0, "order_id": "ORD202510060858136319"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:58:15</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>admin_order_notification</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Order notification sent for REPAIR order from 263718516319</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>2d3753cc</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>{"customer_phone": "263718516319", "customer_name": "~Di!@ne T~", "order_type": "REPAIR", "order_value": 13.0, "product_count": 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:58:16</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>order_confirmation_sent</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Order confirmation sent for REPAIR</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>2d3753cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:59:04</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>order_placed</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Order placed: REPAIR</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Order confirmation sent</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>a2c6ef23</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>{"catalog_id": "796694820003872", "order_text": "", "products": [{"title": "Unnamed Product", "quantity": 1, "price": 48.0, "item_total": 48.0, "retailer_id": "0prz3sf8cv"}], "order_type": "REPAIR", "laptop_count": 0, "repair_count": 1, "total_amount": 48.0, "order_id": "ORD202510060859046319"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:59:06</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>admin_order_notification</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Order notification sent for REPAIR order from 263718516319</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>a2c6ef23</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>{"customer_phone": "263718516319", "customer_name": "~Di!@ne T~", "order_type": "REPAIR", "order_value": 48.0, "product_count": 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:59:09</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>order_confirmation_sent</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Order confirmation sent for REPAIR</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>a2c6ef23</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:59:17</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Hie</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>0595b000</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:59:17</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>0595b000</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:59:30</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Button: admin_order_details</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>admin_order_details</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>0472d4c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:59:37</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Button: browse_laptops</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>b31992ce</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:59:37</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Laptop catalog options sent</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>b31992ce</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:59:47</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Button: action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>5b279199</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:59:47</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Laptop catalog sent</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>5b279199</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "laptops"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:59:52</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Button: admin_back_main</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>admin_back_main</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>c6b3799f</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-10-06 09:00:06</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Button: action_repairs</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>action_repairs</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>c2dab85b</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-10-06 09:00:06</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Repair catalog sent</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>action_repairs</t>
+        </is>
+      </c>
+      <c r="I137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>c2dab85b</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "repairs"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:12:03</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I138" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>7b8a150f</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:12:03</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I139" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>7b8a150f</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:12:47</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Button: lifetime_support</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>lifetime_support</t>
+        </is>
+      </c>
+      <c r="I140" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>2968e1aa</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:12:47</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>lifetime_support</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Lifetime support info sent</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>lifetime_support</t>
+        </is>
+      </c>
+      <c r="I141" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>2968e1aa</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:13:15</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Button: browse_laptops</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>941635cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:13:15</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Laptop catalog options sent</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>941635cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:13:28</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Button: action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I144" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>16215096</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:13:28</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Laptop catalog sent</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I145" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>16215096</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "laptops"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:13:32</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I146" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>13b898ed</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:13:32</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I147" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>13b898ed</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:13:40</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Button: browse_laptops</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I148" t="b">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>ad158e4d</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:13:40</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Laptop catalog options sent</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I149" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>ad158e4d</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:13:46</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Button: action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I150" t="b">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>d48d8600</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:13:46</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Laptop catalog sent</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I151" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>d48d8600</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "laptops"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:14:20</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I152" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>f29e0009</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:14:20</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I153" t="b">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>f29e0009</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:14:40</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>order_placed</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Order placed: LAPTOP</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Order confirmation sent</t>
+        </is>
+      </c>
+      <c r="I154" t="b">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>5316cdda</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>{"catalog_id": "796694820003872", "order_text": "", "products": [{"title": "Unnamed Product", "quantity": 1, "price": 385.0, "item_total": 385.0, "retailer_id": "i6s3jodpvd"}], "order_type": "LAPTOP", "laptop_count": 1, "repair_count": 0, "total_amount": 385.0, "order_id": "ORD202510061214401617"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:14:41</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>admin_order_notification</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Order notification sent for LAPTOP order from 263776681617</t>
+        </is>
+      </c>
+      <c r="I155" t="b">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>5316cdda</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>{"customer_phone": "263776681617", "customer_name": "Codeconel\ud83d\udc68\u200d\ud83d\udcbb", "order_type": "LAPTOP", "order_value": 385.0, "product_count": 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:14:42</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>admin_order_notification</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Order notification sent for LAPTOP order from 263776681617</t>
+        </is>
+      </c>
+      <c r="I156" t="b">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>5316cdda</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>{"customer_phone": "263776681617", "customer_name": "Codeconel\ud83d\udc68\u200d\ud83d\udcbb", "order_type": "LAPTOP", "order_value": 385.0, "product_count": 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:14:43</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>order_confirmation_sent</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Order confirmation sent for LAPTOP</t>
+        </is>
+      </c>
+      <c r="I157" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>5316cdda</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:15:27</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Button: admin_order_management</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I158" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>e98739d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:15:27</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Order management menu sent</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>e98739d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:15:38</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Button: admin_recent_orders</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>admin_recent_orders</t>
+        </is>
+      </c>
+      <c r="I160" t="b">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>9b233cd1</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:29:16</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Button: admin_order_status</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>admin_order_status</t>
+        </is>
+      </c>
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>dd3aae2d</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:31:15</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Button: admin_order_status</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>admin_order_status</t>
+        </is>
+      </c>
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>619e9ce9</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:57:41</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I163" t="b">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>6501028f</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:57:41</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I164" t="b">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>6501028f</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:57:48</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Button: admin_order_management</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I165" t="b">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>52412caa</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:57:48</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Order management menu sent</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I166" t="b">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>52412caa</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:57:56</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Button: admin_recent_orders</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>admin_recent_orders</t>
+        </is>
+      </c>
+      <c r="I167" t="b">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>e89273ec</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:58:11</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Button: admin_process_next</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>admin_process_next</t>
+        </is>
+      </c>
+      <c r="I168" t="b">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>a252ce2a</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:58:47</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Button: admin_order_dashboard</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>admin_order_dashboard</t>
+        </is>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>b40f70c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:59:03</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Button: admin_contact_customer</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>admin_contact_customer</t>
+        </is>
+      </c>
+      <c r="I170" t="b">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>a65631e7</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:59:28</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Button: admin_send_confirmation</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>admin_send_confirmation</t>
+        </is>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>d67cb26d</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-10-06 13:00:39</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Button: admin_customer_comm</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>admin_customer_comm</t>
+        </is>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>aa72d98c</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-10-06 13:00:55</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Button: admin_order_analytics</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>admin_order_analytics</t>
+        </is>
+      </c>
+      <c r="I173" t="b">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>82291eea</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-10-06 13:04:02</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Hie</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>4f302326</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-10-06 13:04:02</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>4f302326</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025-10-06 13:04:20</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>e6cdd0da</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-10-06 13:04:20</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>e6cdd0da</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-10-06 13:04:28</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Button: admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>09e280d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-10-06 13:04:29</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Catalog management menu sent</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>admin_catalog_management</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>09e280d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025-10-06 13:04:36</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Button: admin_add_laptop</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>admin_add_laptop</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>9e0be69c</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:29:53</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Hu</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>c717cc1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:29:54</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>c717cc1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:30:44</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Button: browse_laptops</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>4c445168</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:30:44</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Laptop catalog options sent</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>4c445168</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:30:55</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Button: why_spectrax</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>why_spectrax</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>660458cf</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:30:55</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>why_spectrax</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Why SpectraX message sent</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>why_spectrax</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>660458cf</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:51:45</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I187" t="b">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>b3594800</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:51:45</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I188" t="b">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>b3594800</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:52:44</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Button: browse_laptops</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I189" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>2872e7d5</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:52:44</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Laptop catalog options sent</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I190" t="b">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>2872e7d5</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:52:53</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Button: action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I191" t="b">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>f242fece</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:52:53</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Laptop catalog sent</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I192" t="b">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>f242fece</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "laptops"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:56:20</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Button: why_spectrax</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>why_spectrax</t>
+        </is>
+      </c>
+      <c r="I193" t="b">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>e56ce924</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:56:20</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>why_spectrax</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Why SpectraX message sent</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>why_spectrax</t>
+        </is>
+      </c>
+      <c r="I194" t="b">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>e56ce924</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:56:38</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Button: action_repairs</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>action_repairs</t>
+        </is>
+      </c>
+      <c r="I195" t="b">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>a6e08bbd</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:56:38</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Repair catalog sent</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>action_repairs</t>
+        </is>
+      </c>
+      <c r="I196" t="b">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>a6e08bbd</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "repairs"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:57:06</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>eab9cbe2</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:57:06</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>eab9cbe2</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:57:15</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Button: browse_laptops</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I199" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>4a39d42a</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:57:16</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Laptop catalog options sent</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I200" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>4a39d42a</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:57:27</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Button: action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I201" t="b">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>b7d2741a</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:57:27</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Laptop catalog sent</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I202" t="b">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>b7d2741a</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "laptops"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:58:48</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>3be0f264</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:58:48</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I204" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>3be0f264</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:58:56</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Button: browse_laptops</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I205" t="b">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>9736a78f</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:58:56</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Laptop catalog options sent</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I206" t="b">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>9736a78f</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:59:05</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Button: action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I207" t="b">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>6cc02395</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:59:05</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Laptop catalog sent</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I208" t="b">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>6cc02395</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "laptops"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:00:00</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I209" t="b">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>6a7e7330</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:00:00</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>6a7e7330</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:00:08</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Button: browse_laptops</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>0574f5a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:00:08</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Laptop catalog options sent</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>0574f5a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:00:14</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Button: action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>dcbeaf0d</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:00:15</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Laptop catalog sent</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>dcbeaf0d</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "laptops"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:03:56</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>0ce0a93b</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:03:57</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>0ce0a93b</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:04:10</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Button: browse_laptops</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>54d1a92e</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:04:10</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Laptop catalog options sent</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>54d1a92e</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:04:15</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Button: action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I219" t="b">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>d5faeb49</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:04:15</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Laptop catalog sent</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>d5faeb49</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "laptops"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:04:55</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>order_placed</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Order placed: LAPTOP</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Order confirmation sent</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>e44b062f</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>{"catalog_id": "796694820003872", "order_text": "", "products": [{"title": "Unnamed Product", "quantity": 1, "price": 410.0, "item_total": 410.0, "retailer_id": "esxr0rxyrk"}], "order_type": "LAPTOP", "laptop_count": 1, "repair_count": 0, "total_amount": 410.0, "order_id": "ORD202510061704551617"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:04:57</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>admin_order_notification</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Order notification sent for LAPTOP order from 263776681617</t>
+        </is>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>e44b062f</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>{"customer_phone": "263776681617", "customer_name": "Codeconel\ud83d\udc68\u200d\ud83d\udcbb", "order_type": "LAPTOP", "order_value": 410.0, "product_count": 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:04:58</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>admin_order_notification</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Order notification sent for LAPTOP order from 263776681617</t>
+        </is>
+      </c>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>e44b062f</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>{"customer_phone": "263776681617", "customer_name": "Codeconel\ud83d\udc68\u200d\ud83d\udcbb", "order_type": "LAPTOP", "order_value": 410.0, "product_count": 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:04:59</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>order_confirmation_sent</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Order confirmation sent for LAPTOP</t>
+        </is>
+      </c>
+      <c r="I224" t="b">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>e44b062f</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:05:15</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Button: action_repairs</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>action_repairs</t>
+        </is>
+      </c>
+      <c r="I225" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>b2ab2c01</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:05:15</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Repair catalog sent</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>action_repairs</t>
+        </is>
+      </c>
+      <c r="I226" t="b">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>b2ab2c01</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "repairs"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:09:29</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I227" t="b">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>368716c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:09:29</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I228" t="b">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>368716c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:09:39</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Button: browse_laptops</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I229" t="b">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>ead446c7</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:09:39</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Laptop catalog options sent</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I230" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>ead446c7</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:10:31</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Button: action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I231" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>7b84b8f5</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:10:31</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Laptop catalog sent</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I232" t="b">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>7b84b8f5</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "laptops"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:10:43</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Button: action_repairs</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>action_repairs</t>
+        </is>
+      </c>
+      <c r="I233" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>12584d15</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:10:43</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Repair catalog sent</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>action_repairs</t>
+        </is>
+      </c>
+      <c r="I234" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>12584d15</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "repairs"}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/activity_log.xlsx
+++ b/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K234"/>
+  <dimension ref="A1:K340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10428,6 +10428,4526 @@
         </is>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:31:24</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>07a07871</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:31:25</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>07a07871</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:32:18</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>H8</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>ea5067f1</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:32:18</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>ea5067f1</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:35:30</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Button: browse_laptops</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>a8f5e7e4</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:35:30</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Laptop catalog options sent</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I240" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>a8f5e7e4</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:37:43</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Button: action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I241" t="b">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>491bcc78</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:37:43</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Laptop catalog sent</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I242" t="b">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>491bcc78</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "laptops"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:38:10</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Button: action_repairs</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>action_repairs</t>
+        </is>
+      </c>
+      <c r="I243" t="b">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>5a8214ae</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:38:11</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Repair catalog sent</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>action_repairs</t>
+        </is>
+      </c>
+      <c r="I244" t="b">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>5a8214ae</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "repairs"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:38:37</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>order_placed</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Order placed: REPAIR</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Order confirmation sent</t>
+        </is>
+      </c>
+      <c r="I245" t="b">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>155adc0a</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>{"catalog_id": "796694820003872", "order_text": "", "products": [{"title": "Unnamed Product", "quantity": 1, "price": 13.0, "item_total": 13.0, "retailer_id": "14bnrluwsq"}], "order_type": "REPAIR", "laptop_count": 0, "repair_count": 1, "total_amount": 13.0, "order_id": "ORD202510070938371617"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:38:38</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>admin_order_notification</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Order notification sent for REPAIR order from 263776681617</t>
+        </is>
+      </c>
+      <c r="I246" t="b">
+        <v>1</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>155adc0a</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>{"customer_phone": "263776681617", "customer_name": "Codeconel\ud83d\udc68\u200d\ud83d\udcbb", "order_type": "REPAIR", "order_value": 13.0, "product_count": 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:38:40</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>admin_order_notification</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Order notification sent for REPAIR order from 263776681617</t>
+        </is>
+      </c>
+      <c r="I247" t="b">
+        <v>1</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>155adc0a</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>{"customer_phone": "263776681617", "customer_name": "Codeconel\ud83d\udc68\u200d\ud83d\udcbb", "order_type": "REPAIR", "order_value": 13.0, "product_count": 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:38:42</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>order_confirmation_sent</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Order confirmation sent for REPAIR</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>155adc0a</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:38:55</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Button: admin_process_order</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>admin_process_order</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>0d71da45</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:39:07</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Button: admin_request_payment</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>admin_request_payment</t>
+        </is>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>b7be6bce</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:39:30</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Button: admin_schedule_delivery</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>admin_schedule_delivery</t>
+        </is>
+      </c>
+      <c r="I251" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>8270d86f</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:52:06</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Button: why_spectrax</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>why_spectrax</t>
+        </is>
+      </c>
+      <c r="I252" t="b">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>bdc6959f</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:52:06</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>why_spectrax</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Why SpectraX message sent</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>why_spectrax</t>
+        </is>
+      </c>
+      <c r="I253" t="b">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>bdc6959f</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2025-10-10 10:52:08</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Hu</t>
+        </is>
+      </c>
+      <c r="I254" t="b">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>4a4dbb29</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2025-10-10 10:52:08</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I255" t="b">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>4a4dbb29</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2025-10-10 10:52:34</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I256" t="b">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>5bb29821</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2025-10-10 10:52:34</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I257" t="b">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>5bb29821</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2025-10-10 10:53:05</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I258" t="b">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>44440dcb</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-10-10 10:53:05</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I259" t="b">
+        <v>0</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>44440dcb</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2025-10-10 10:56:05</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Button: browse_laptops</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I260" t="b">
+        <v>0</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>18b40124</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2025-10-10 10:56:05</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Laptop catalog options sent</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I261" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>18b40124</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2025-10-10 10:56:17</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Button: action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I262" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>f408ab5a</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2025-10-10 10:56:17</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Laptop catalog sent</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I263" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>f408ab5a</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "laptops"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2025-10-10 10:57:21</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>order_placed</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Order placed: LAPTOP</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Order confirmation sent</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>947b6e4a</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>{"catalog_id": "796694820003872", "order_text": "", "products": [{"title": "Unnamed Product", "quantity": 1, "price": 385.0, "item_total": 385.0, "retailer_id": "i6s3jodpvd"}], "order_type": "LAPTOP", "laptop_count": 1, "repair_count": 0, "total_amount": 385.0, "order_id": "ORD202510101057201617"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2025-10-10 10:57:24</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>admin_order_notification</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Order notification sent for LAPTOP order from 263776681617</t>
+        </is>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>947b6e4a</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>{"customer_phone": "263776681617", "customer_name": "Codeconel\ud83d\udc68\u200d\ud83d\udcbb", "order_type": "LAPTOP", "order_value": 385.0, "product_count": 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2025-10-10 10:57:26</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>admin_order_notification</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Order notification sent for LAPTOP order from 263776681617</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>947b6e4a</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>{"customer_phone": "263776681617", "customer_name": "Codeconel\ud83d\udc68\u200d\ud83d\udcbb", "order_type": "LAPTOP", "order_value": 385.0, "product_count": 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2025-10-10 10:57:27</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>order_confirmation_sent</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Order confirmation sent for LAPTOP</t>
+        </is>
+      </c>
+      <c r="I267" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>947b6e4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2025-10-10 10:58:21</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>1a5cc2f3</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2025-10-10 10:58:21</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>1a5cc2f3</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2025-10-10 10:58:30</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Button: admin_order_management</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>5364bbcc</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2025-10-10 10:58:30</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Order management menu sent</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>5364bbcc</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2025-10-10 10:58:40</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Button: admin_recent_orders</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>admin_recent_orders</t>
+        </is>
+      </c>
+      <c r="I272" t="b">
+        <v>1</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>7f68b673</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:11:05</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I273" t="b">
+        <v>0</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>c305b463</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:11:05</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I274" t="b">
+        <v>0</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>c305b463</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:13:08</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I275" t="b">
+        <v>0</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>67b01c32</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:13:08</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>welcome_message</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Welcome message sent</t>
+        </is>
+      </c>
+      <c r="I276" t="b">
+        <v>0</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>67b01c32</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:15:06</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Button: browse_laptops</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I277" t="b">
+        <v>0</v>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>c027604a</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:15:06</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Laptop catalog options sent</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>browse_laptops</t>
+        </is>
+      </c>
+      <c r="I278" t="b">
+        <v>0</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>c027604a</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:16:00</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Button: action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I279" t="b">
+        <v>0</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>011c47d0</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:16:00</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>catalog_viewed</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Laptop catalog sent</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>action_buy_laptop</t>
+        </is>
+      </c>
+      <c r="I280" t="b">
+        <v>0</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>011c47d0</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>{"catalog_type": "laptops"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:23:46</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I281" t="b">
+        <v>1</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>7b5d56ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:23:46</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I282" t="b">
+        <v>1</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>7b5d56ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:24:06</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Button: admin_order_management</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I283" t="b">
+        <v>1</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>171e3482</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:24:06</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Order management menu sent</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I284" t="b">
+        <v>1</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>171e3482</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:24:17</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Button: admin_recent_orders</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>admin_recent_orders</t>
+        </is>
+      </c>
+      <c r="I285" t="b">
+        <v>1</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>080a082a</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:35:31</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I286" t="b">
+        <v>1</v>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>3bcfb2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:35:31</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I287" t="b">
+        <v>1</v>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>3bcfb2ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:36:11</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I288" t="b">
+        <v>1</v>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>f9c30819</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:36:11</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I289" t="b">
+        <v>1</v>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>f9c30819</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:36:49</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I290" t="b">
+        <v>1</v>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>6536d31c</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:36:49</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I291" t="b">
+        <v>1</v>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>6536d31c</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:37:10</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Button: admin_view_all_orders</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>admin_view_all_orders</t>
+        </is>
+      </c>
+      <c r="I292" t="b">
+        <v>1</v>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>1ad4ece9</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:38:02</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Button: admin_order_management</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I293" t="b">
+        <v>1</v>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>87c36066</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:38:02</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Order management menu sent</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I294" t="b">
+        <v>1</v>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>87c36066</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:40:38</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I295" t="b">
+        <v>1</v>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>8ed84dd0</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:40:38</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I296" t="b">
+        <v>1</v>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>8ed84dd0</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:40:45</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Button: admin_order_management</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I297" t="b">
+        <v>1</v>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>233273c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:40:45</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Order management menu sent</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I298" t="b">
+        <v>1</v>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>233273c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:40:58</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Button: admin_order_management</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I299" t="b">
+        <v>1</v>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>24b1a2d9</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:40:58</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Order management menu sent</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I300" t="b">
+        <v>1</v>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>24b1a2d9</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:51:07</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I301" t="b">
+        <v>1</v>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>d90dd9fe</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:51:08</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I302" t="b">
+        <v>1</v>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>d90dd9fe</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:51:19</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I303" t="b">
+        <v>1</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>b1aecbb7</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:51:19</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I304" t="b">
+        <v>1</v>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>b1aecbb7</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:51:59</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I305" t="b">
+        <v>1</v>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>ce25c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:52:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I306" t="b">
+        <v>1</v>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>ce25c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:52:42</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Button: admin_order_management</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I307" t="b">
+        <v>1</v>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>5f48a105</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:52:42</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>Order management menu sent</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I308" t="b">
+        <v>1</v>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>5f48a105</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:53:20</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Button: admin_order_management</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I309" t="b">
+        <v>1</v>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>1e5054e9</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:53:20</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Order management menu sent</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I310" t="b">
+        <v>1</v>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>1e5054e9</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:53:41</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Button: admin_order_management</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I311" t="b">
+        <v>1</v>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>76486b33</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:53:41</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Order management menu sent</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I312" t="b">
+        <v>1</v>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>76486b33</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:53:52</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I313" t="b">
+        <v>1</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>d04b57d7</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-10-10 12:53:53</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I314" t="b">
+        <v>1</v>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>d04b57d7</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:02:59</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Button: admin_order_status</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>admin_order_status</t>
+        </is>
+      </c>
+      <c r="I315" t="b">
+        <v>1</v>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>0e43a532</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:03:02</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Button: admin_order_status</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>admin_order_status</t>
+        </is>
+      </c>
+      <c r="I316" t="b">
+        <v>1</v>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>c6a70cab</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:03:04</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Button: admin_order_status</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>admin_order_status</t>
+        </is>
+      </c>
+      <c r="I317" t="b">
+        <v>1</v>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>8b69bf32</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:03:07</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Button: admin_order_status</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>admin_order_status</t>
+        </is>
+      </c>
+      <c r="I318" t="b">
+        <v>1</v>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>6c43a603</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:03:09</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Button: admin_order_status</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>admin_order_status</t>
+        </is>
+      </c>
+      <c r="I319" t="b">
+        <v>1</v>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>e8801dae</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:07:13</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Button: admin_recent_orders</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>admin_recent_orders</t>
+        </is>
+      </c>
+      <c r="I320" t="b">
+        <v>1</v>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>17051edc</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:07:43</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Button: admin_order_management</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I321" t="b">
+        <v>1</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>8fbd59a0</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:07:43</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Order management menu sent</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I322" t="b">
+        <v>1</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>8fbd59a0</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:08:27</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Button: admin_recent_orders</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>admin_recent_orders</t>
+        </is>
+      </c>
+      <c r="I323" t="b">
+        <v>1</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>6accc95c</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:08:35</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>Button: admin_view_all_orders</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>admin_view_all_orders</t>
+        </is>
+      </c>
+      <c r="I324" t="b">
+        <v>1</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>4ac46599</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:08:46</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Button: admin_select_order:ORD202510060844051617</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>admin_select_order:ORD202510060844051617</t>
+        </is>
+      </c>
+      <c r="I325" t="b">
+        <v>1</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>816a19b7</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:13:48</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>Button: admin_update_status</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>admin_update_status</t>
+        </is>
+      </c>
+      <c r="I326" t="b">
+        <v>1</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>d3901a03</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:13:50</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>Button: admin_update_status</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>admin_update_status</t>
+        </is>
+      </c>
+      <c r="I327" t="b">
+        <v>1</v>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>2236e12a</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:13:52</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>Button: admin_update_status</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>admin_update_status</t>
+        </is>
+      </c>
+      <c r="I328" t="b">
+        <v>1</v>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>02fe6872</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:13:55</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>Button: admin_update_status</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>admin_update_status</t>
+        </is>
+      </c>
+      <c r="I329" t="b">
+        <v>1</v>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>f300a6c5</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:13:57</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>Button: admin_update_status</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>admin_update_status</t>
+        </is>
+      </c>
+      <c r="I330" t="b">
+        <v>1</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>06ef1b1a</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:13:59</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>Button: admin_update_status</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>admin_update_status</t>
+        </is>
+      </c>
+      <c r="I331" t="b">
+        <v>1</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>db44a0e0</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:14:08</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>message_received</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="I332" t="b">
+        <v>1</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>2eb7bde6</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:14:09</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>admin_welcome</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Admin welcome message sent</t>
+        </is>
+      </c>
+      <c r="I333" t="b">
+        <v>1</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>2eb7bde6</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:14:19</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>Button: admin_order_management</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I334" t="b">
+        <v>1</v>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>b61c2560</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:14:20</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Order management menu sent</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>admin_order_management</t>
+        </is>
+      </c>
+      <c r="I335" t="b">
+        <v>1</v>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>b61c2560</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:14:27</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>Button: admin_recent_orders</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>admin_recent_orders</t>
+        </is>
+      </c>
+      <c r="I336" t="b">
+        <v>1</v>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>557eab3c</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:14:51</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>Button: admin_recent_orders</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>admin_recent_orders</t>
+        </is>
+      </c>
+      <c r="I337" t="b">
+        <v>1</v>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>67e7b16d</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:15:24</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>Button: admin_view_all_orders</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>admin_view_all_orders</t>
+        </is>
+      </c>
+      <c r="I338" t="b">
+        <v>1</v>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>0a41abc5</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:15:31</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>Button: admin_filter_non_completed</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>admin_filter_non_completed</t>
+        </is>
+      </c>
+      <c r="I339" t="b">
+        <v>1</v>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>88722ddc</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:15:38</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>263711475883</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>SpectraX Eyewear</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>button_clicked</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>interactive_button</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>Button: admin_export_orders</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>admin_export_orders</t>
+        </is>
+      </c>
+      <c r="I340" t="b">
+        <v>1</v>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>c97145f1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
